--- a/test_files/program/echo.xlsx
+++ b/test_files/program/echo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell-jnde\minishell-tester\test_files\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell\minishell-tester\test_files\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DBAD6-176E-4DD8-AB95-8A76D74262AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C564C4A-9D43-4C43-BCCA-696276800514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="196">
   <si>
     <t>$&gt; echo $9HOME</t>
   </si>
@@ -403,6 +403,217 @@
   </si>
   <si>
     <t>$&gt; $?</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>echo -n</t>
+  </si>
+  <si>
+    <t>echo Hola</t>
+  </si>
+  <si>
+    <t>echoHola</t>
+  </si>
+  <si>
+    <t>echo-nHola</t>
+  </si>
+  <si>
+    <t>echo -n Hola</t>
+  </si>
+  <si>
+    <t>echo -nHola</t>
+  </si>
+  <si>
+    <t>echo Hola -n</t>
+  </si>
+  <si>
+    <t>echo Hola Que Tal</t>
+  </si>
+  <si>
+    <t>echo         Hola</t>
+  </si>
+  <si>
+    <t>echo    Hola     Que    Tal</t>
+  </si>
+  <si>
+    <t>echo "         " | cat -e</t>
+  </si>
+  <si>
+    <t>echo           | cat -e</t>
+  </si>
+  <si>
+    <t>echo -n -n</t>
+  </si>
+  <si>
+    <t>echo -n -n Hola Que</t>
+  </si>
+  <si>
+    <t>echo -p</t>
+  </si>
+  <si>
+    <t>echo -nnnnn</t>
+  </si>
+  <si>
+    <t>echo -n -nnn -nnnn</t>
+  </si>
+  <si>
+    <t>echo -n-nnn -nnnn</t>
+  </si>
+  <si>
+    <t>echo -n -nnn hola -nnnn</t>
+  </si>
+  <si>
+    <t>echo -n -nnn-nnnn</t>
+  </si>
+  <si>
+    <t>echo --------n</t>
+  </si>
+  <si>
+    <t>echo
+hola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo </t>
+  </si>
+  <si>
+    <t>echo hola que tal</t>
+  </si>
+  <si>
+    <t>echo $</t>
+  </si>
+  <si>
+    <t>echo a</t>
+  </si>
+  <si>
+    <t>echo $a</t>
+  </si>
+  <si>
+    <t>echo ''</t>
+  </si>
+  <si>
+    <t>echo ""</t>
+  </si>
+  <si>
+    <t>echo 'a'</t>
+  </si>
+  <si>
+    <t>echo "a"</t>
+  </si>
+  <si>
+    <t>echo $USER</t>
+  </si>
+  <si>
+    <t>echo '$USER'</t>
+  </si>
+  <si>
+    <t>echo "$USER"</t>
+  </si>
+  <si>
+    <t>echo "'$USER'"</t>
+  </si>
+  <si>
+    <t>echo '"$USER"'</t>
+  </si>
+  <si>
+    <t>echo "''$USER''"</t>
+  </si>
+  <si>
+    <t>echo ''"$USER"''</t>
+  </si>
+  <si>
+    <t>echo ""'$USER'""</t>
+  </si>
+  <si>
+    <t>echo '""$USER""'</t>
+  </si>
+  <si>
+    <t>echo "'"$USER"'"</t>
+  </si>
+  <si>
+    <t>echo "'"'$USER'"'"</t>
+  </si>
+  <si>
+    <t>echo "'""$USER""'"</t>
+  </si>
+  <si>
+    <t>echo "''"'$USER'"''"</t>
+  </si>
+  <si>
+    <t>echo "''""$USER""''"</t>
+  </si>
+  <si>
+    <t>echo "''"$USER"''"</t>
+  </si>
+  <si>
+    <t>echo "'"$USER</t>
+  </si>
+  <si>
+    <t>echo "'""'""'""'"$USER</t>
+  </si>
+  <si>
+    <t>echo $USER"'"</t>
+  </si>
+  <si>
+    <t>echo $USER"'""'""'""'"</t>
+  </si>
+  <si>
+    <t>echo $USER"a"</t>
+  </si>
+  <si>
+    <t>echo $USER'a'</t>
+  </si>
+  <si>
+    <t>echo $USER"$USER"</t>
+  </si>
+  <si>
+    <t>echo $""</t>
+  </si>
+  <si>
+    <t>echo "$"""</t>
+  </si>
+  <si>
+    <t>echo $"HOME"</t>
+  </si>
+  <si>
+    <t>echo a b c</t>
+  </si>
+  <si>
+    <t>echo hawayda</t>
+  </si>
+  <si>
+    <t>echo 'hawayda'</t>
+  </si>
+  <si>
+    <t>echo ''hawayda''</t>
+  </si>
+  <si>
+    <t>echo ""$USER""</t>
+  </si>
+  <si>
+    <t>echo ''$USER''</t>
+  </si>
+  <si>
+    <t>echo 'hawayda</t>
+  </si>
+  <si>
+    <t>echo ''''hawayda</t>
+  </si>
+  <si>
+    <t>echo hawayda'</t>
+  </si>
+  <si>
+    <t>echo hawayda''''</t>
+  </si>
+  <si>
+    <t>echo hawaydaa</t>
+  </si>
+  <si>
+    <t>echo hawaydahawayda</t>
+  </si>
+  <si>
+    <t>echo HOME</t>
   </si>
 </sst>
 </file>
@@ -477,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -487,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,174 +1035,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A129"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="44.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1473,9 +1763,289 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/program/echo.xlsx
+++ b/test_files/program/echo.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brt.hawayda\Desktop\42\minishell\minishell-tester\test_files\program\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F15157-E723-4F98-83A1-8B8A9969D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,608 +25,605 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="197">
-  <si>
-    <t xml:space="preserve">$&gt; echo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echoHola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echoHola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo-nHola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo-nHola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "-n" Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -nHola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -nHola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo Hola -n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo Hola -n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo Hola Que Tal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo Hola Que Tal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo         Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo         Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo    Hola     Que    Tal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo    Hola     Que    Tal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo      \n hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="197">
+  <si>
+    <t>$&gt; echo</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n</t>
+  </si>
+  <si>
+    <t>echo -n</t>
+  </si>
+  <si>
+    <t>$&gt; echo Hola</t>
+  </si>
+  <si>
+    <t>echo Hola</t>
+  </si>
+  <si>
+    <t>$&gt; echoHola</t>
+  </si>
+  <si>
+    <t>echoHola</t>
+  </si>
+  <si>
+    <t>$&gt; echo-nHola</t>
+  </si>
+  <si>
+    <t>echo-nHola</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n Hola</t>
+  </si>
+  <si>
+    <t>echo -n Hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo "-n" Hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo -nHola</t>
+  </si>
+  <si>
+    <t>echo -nHola</t>
+  </si>
+  <si>
+    <t>$&gt; echo Hola -n</t>
+  </si>
+  <si>
+    <t>echo Hola -n</t>
+  </si>
+  <si>
+    <t>$&gt; echo Hola Que Tal</t>
+  </si>
+  <si>
+    <t>echo Hola Que Tal</t>
+  </si>
+  <si>
+    <t>$&gt; echo         Hola</t>
+  </si>
+  <si>
+    <t>echo         Hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo    Hola     Que    Tal</t>
+  </si>
+  <si>
+    <t>echo    Hola     Que    Tal</t>
+  </si>
+  <si>
+    <t>$&gt; echo      \n hola</t>
+  </si>
+  <si>
+    <t>echo
 hola</t>
   </si>
   <si>
-    <t xml:space="preserve">$&gt; echo "         " | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "         " | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo           | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo           | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; ""''echo hola""'''' que""'' tal""''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo hola que tal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n -n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n -n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n -n Hola Que</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n -n Hola Que</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -nnnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -nnnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n -nnn -nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n -nnn -nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n-nnn -nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n-nnn -nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n -nnn hola -nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n -nnn hola -nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -n -nnn-nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -n -nnn-nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo --------n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo --------n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -nnn --------n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -nnn -----nn---nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -nnn --------nnnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $?$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $? | echo $? | echo $?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $:$= | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo " $ " | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ' $ ' | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo \$HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo my shit terminal is [$TERM]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo my shit terminal is [$TERM4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo my shit terminal is [$TERM4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $HOME9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $9HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $HOME%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $UID$HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo Le path de mon HOME est $HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $USER$var\$USER$USER\$USERtest$USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $hola*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo -nnnn $hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo &gt; &lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo | |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; EechoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; .echo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &gt;echo&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &lt;echo&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; &gt;&gt;echo&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; |echo|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; |echo -n hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '*'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo D*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo *Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo *t hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo *t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola*hola *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $HOME*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '$'''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $"HOME"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $''HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $""HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$HO"ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '$HO'ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$HO""ME"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '$HO''ME'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "'$HO''ME'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ""$HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "" $HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ''$HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '' $HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $"HO""ME"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $'HO''ME'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $'HOME'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$"HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $=HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $"HOLA"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $'HOLA'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo $DONTEXIST Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "hola"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo 'hola'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ''hola''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ''h'o'la''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "''h'o'la''"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "'"h'o'la"'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo"'hola'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "'hola'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '"hola"'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo '''ho"''''l"a'''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola""""""""""""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola"''''''''''"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola''''''''''''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola'""""""""""'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; e"cho hola"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; e'cho hola'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "hola     " | cat -e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ""hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "" hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo ""             hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo hola""bonjour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; "e"'c'ho 'b'"o"nj"o"'u'r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; ""e"'c'ho 'b'"o"nj"o"'u'r"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$DONTEXIST"Makefile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$DONTEXIST""Makefile"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; echo "$DONTEXIST" "Makefile"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $?$?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; ?$HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $HOMEdskjhfkdshfsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; "$HOMEdskjhfkdshfsd"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; '$HOMEdskjhfkdshfsd'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $DONTEXIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$&gt; $LESS$VAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo 'a'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "a"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo hawayda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo '$USER'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "$USER"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "'$USER'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo 'hawayda'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo '"$USER"'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "''$USER''"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ''hawayda''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ''"$USER"''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ""'$USER'""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo '""$USER""'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ""$USER""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "'"$USER"'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "'"'$USER'"'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "'""$USER""'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "''"'$USER'"''"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ''$USER''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "''""$USER""''"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "''"$USER"''"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "'"$USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo 'hawayda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "'""'""'""'"$USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo ''''hawayda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $USER"'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo hawayda'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $USER"'""'""'""'"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo hawayda''''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $USER"a"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo hawaydaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $USER'a'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $USER"$USER"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo hawaydahawayda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo $""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "$"""</t>
+    <t>$&gt; echo "         " | cat -e</t>
+  </si>
+  <si>
+    <t>echo "         " | cat -e</t>
+  </si>
+  <si>
+    <t>$&gt; echo           | cat -e</t>
+  </si>
+  <si>
+    <t>echo           | cat -e</t>
+  </si>
+  <si>
+    <t>$&gt; ""''echo hola""'''' que""'' tal""''</t>
+  </si>
+  <si>
+    <t>echo hola que tal</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n -n</t>
+  </si>
+  <si>
+    <t>echo -n -n</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n -n Hola Que</t>
+  </si>
+  <si>
+    <t>echo -n -n Hola Que</t>
+  </si>
+  <si>
+    <t>$&gt; echo -p</t>
+  </si>
+  <si>
+    <t>echo -p</t>
+  </si>
+  <si>
+    <t>$&gt; echo -nnnnn</t>
+  </si>
+  <si>
+    <t>echo -nnnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n -nnn -nnnn</t>
+  </si>
+  <si>
+    <t>echo -n -nnn -nnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n-nnn -nnnn</t>
+  </si>
+  <si>
+    <t>echo -n-nnn -nnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n -nnn hola -nnnn</t>
+  </si>
+  <si>
+    <t>echo -n -nnn hola -nnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo -n -nnn-nnnn</t>
+  </si>
+  <si>
+    <t>echo -n -nnn-nnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo --------n</t>
+  </si>
+  <si>
+    <t>echo --------n</t>
+  </si>
+  <si>
+    <t>$&gt; echo -nnn --------n</t>
+  </si>
+  <si>
+    <t>$&gt; echo -nnn -----nn---nnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo -nnn --------nnnn</t>
+  </si>
+  <si>
+    <t>$&gt; echo $</t>
+  </si>
+  <si>
+    <t>$&gt; echo $?</t>
+  </si>
+  <si>
+    <t>$&gt; echo $?$</t>
+  </si>
+  <si>
+    <t>$&gt; echo $? | echo $? | echo $?</t>
+  </si>
+  <si>
+    <t>$&gt; echo $:$= | cat -e</t>
+  </si>
+  <si>
+    <t>$&gt; echo " $ " | cat -e</t>
+  </si>
+  <si>
+    <t>$&gt; echo ' $ ' | cat -e</t>
+  </si>
+  <si>
+    <t>$&gt; echo $HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo \$HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo my shit terminal is [$TERM]</t>
+  </si>
+  <si>
+    <t>$&gt; echo my shit terminal is [$TERM4</t>
+  </si>
+  <si>
+    <t>$&gt; echo my shit terminal is [$TERM4]</t>
+  </si>
+  <si>
+    <t>$&gt; echo $UID</t>
+  </si>
+  <si>
+    <t>$&gt; echo $HOME9</t>
+  </si>
+  <si>
+    <t>$&gt; echo $9HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo $HOME%</t>
+  </si>
+  <si>
+    <t>$&gt; echo $UID$HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo Le path de mon HOME est $HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo $USER$var\$USER$USER\$USERtest$USER</t>
+  </si>
+  <si>
+    <t>$&gt; echo $hola*</t>
+  </si>
+  <si>
+    <t>$&gt; echo -nnnn $hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo &gt; &lt;</t>
+  </si>
+  <si>
+    <t>$&gt; echo | |</t>
+  </si>
+  <si>
+    <t>$&gt; EechoE</t>
+  </si>
+  <si>
+    <t>$&gt; .echo.</t>
+  </si>
+  <si>
+    <t>$&gt; &gt;echo&gt;</t>
+  </si>
+  <si>
+    <t>$&gt; &lt;echo&lt;</t>
+  </si>
+  <si>
+    <t>$&gt; &gt;&gt;echo&gt;&gt;</t>
+  </si>
+  <si>
+    <t>$&gt; |echo|</t>
+  </si>
+  <si>
+    <t>$&gt; |echo -n hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo *</t>
+  </si>
+  <si>
+    <t>$&gt; echo '*'</t>
+  </si>
+  <si>
+    <t>$&gt; echo D*</t>
+  </si>
+  <si>
+    <t>$&gt; echo *Z</t>
+  </si>
+  <si>
+    <t>$&gt; echo *t hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo *t</t>
+  </si>
+  <si>
+    <t>$&gt; echo $*</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola*hola *</t>
+  </si>
+  <si>
+    <t>$&gt; echo $HOME*</t>
+  </si>
+  <si>
+    <t>$&gt; echo $""</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$"""</t>
+  </si>
+  <si>
+    <t>$&gt; echo '$'''</t>
+  </si>
+  <si>
+    <t>$&gt; echo $"HOME"</t>
+  </si>
+  <si>
+    <t>$&gt; echo $''HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo $""HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$HO"ME</t>
+  </si>
+  <si>
+    <t>$&gt; echo '$HO'ME</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$HO""ME"</t>
+  </si>
+  <si>
+    <t>$&gt; echo '$HO''ME'</t>
+  </si>
+  <si>
+    <t>$&gt; echo "'$HO''ME'"</t>
+  </si>
+  <si>
+    <t>$&gt; echo ""$HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo "" $HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo ''$HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo '' $HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo $"HO""ME"</t>
+  </si>
+  <si>
+    <t>$&gt; echo $'HO''ME'</t>
+  </si>
+  <si>
+    <t>$&gt; echo $'HOME'</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$"HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo $=HOME</t>
+  </si>
+  <si>
+    <t>$&gt; echo $"HOLA"</t>
+  </si>
+  <si>
+    <t>$&gt; echo $'HOLA'</t>
+  </si>
+  <si>
+    <t>$&gt; echo $DONTEXIST Hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo "hola"</t>
+  </si>
+  <si>
+    <t>$&gt; echo 'hola'</t>
+  </si>
+  <si>
+    <t>$&gt; echo ''hola''</t>
+  </si>
+  <si>
+    <t>$&gt; echo ''h'o'la''</t>
+  </si>
+  <si>
+    <t>$&gt; echo "''h'o'la''"</t>
+  </si>
+  <si>
+    <t>$&gt; echo "'"h'o'la"'"</t>
+  </si>
+  <si>
+    <t>$&gt; echo"'hola'"</t>
+  </si>
+  <si>
+    <t>$&gt; echo "'hola'"</t>
+  </si>
+  <si>
+    <t>$&gt; echo '"hola"'</t>
+  </si>
+  <si>
+    <t>$&gt; echo '''ho"''''l"a'''</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola""""""""""""</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola"''''''''''"</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola''''''''''''</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola'""""""""""'</t>
+  </si>
+  <si>
+    <t>$&gt; e"cho hola"</t>
+  </si>
+  <si>
+    <t>$&gt; e'cho hola'</t>
+  </si>
+  <si>
+    <t>$&gt; echo "hola     " | cat -e</t>
+  </si>
+  <si>
+    <t>$&gt; echo ""hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo "" hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo ""             hola</t>
+  </si>
+  <si>
+    <t>$&gt; echo hola""bonjour</t>
+  </si>
+  <si>
+    <t>$&gt; "e"'c'ho 'b'"o"nj"o"'u'r</t>
+  </si>
+  <si>
+    <t>$&gt; ""e"'c'ho 'b'"o"nj"o"'u'r"</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$DONTEXIST"Makefile</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$DONTEXIST""Makefile"</t>
+  </si>
+  <si>
+    <t>$&gt; echo "$DONTEXIST" "Makefile"</t>
+  </si>
+  <si>
+    <t>$&gt; $?</t>
+  </si>
+  <si>
+    <t>$&gt; $?$?</t>
+  </si>
+  <si>
+    <t>$&gt; ?$HOME</t>
+  </si>
+  <si>
+    <t>$&gt; $</t>
+  </si>
+  <si>
+    <t>$&gt; $HOME</t>
+  </si>
+  <si>
+    <t>$&gt; $HOMEdskjhfkdshfsd</t>
+  </si>
+  <si>
+    <t>$&gt; "$HOMEdskjhfkdshfsd"</t>
+  </si>
+  <si>
+    <t>$&gt; '$HOMEdskjhfkdshfsd'</t>
+  </si>
+  <si>
+    <t>$&gt; $DONTEXIST</t>
+  </si>
+  <si>
+    <t>$&gt; $LESS$VAR</t>
+  </si>
+  <si>
+    <t>echo a</t>
+  </si>
+  <si>
+    <t>echo $a</t>
+  </si>
+  <si>
+    <t>echo ''</t>
+  </si>
+  <si>
+    <t>echo ""</t>
+  </si>
+  <si>
+    <t>echo 'a'</t>
+  </si>
+  <si>
+    <t>echo "a"</t>
+  </si>
+  <si>
+    <t>echo $USER</t>
+  </si>
+  <si>
+    <t>echo hawayda</t>
+  </si>
+  <si>
+    <t>echo '$USER'</t>
+  </si>
+  <si>
+    <t>echo "$USER"</t>
+  </si>
+  <si>
+    <t>echo "'$USER'"</t>
+  </si>
+  <si>
+    <t>echo 'hawayda'</t>
+  </si>
+  <si>
+    <t>echo '"$USER"'</t>
+  </si>
+  <si>
+    <t>echo "''$USER''"</t>
+  </si>
+  <si>
+    <t>echo ''hawayda''</t>
+  </si>
+  <si>
+    <t>echo ''"$USER"''</t>
+  </si>
+  <si>
+    <t>echo ""'$USER'""</t>
+  </si>
+  <si>
+    <t>echo '""$USER""'</t>
+  </si>
+  <si>
+    <t>echo ""$USER""</t>
+  </si>
+  <si>
+    <t>echo "'"$USER"'"</t>
+  </si>
+  <si>
+    <t>echo "'"'$USER'"'"</t>
+  </si>
+  <si>
+    <t>echo "'""$USER""'"</t>
+  </si>
+  <si>
+    <t>echo "''"'$USER'"''"</t>
+  </si>
+  <si>
+    <t>echo ''$USER''</t>
+  </si>
+  <si>
+    <t>echo "''""$USER""''"</t>
+  </si>
+  <si>
+    <t>echo "''"$USER"''"</t>
+  </si>
+  <si>
+    <t>echo "'"$USER</t>
+  </si>
+  <si>
+    <t>echo 'hawayda</t>
+  </si>
+  <si>
+    <t>echo "'""'""'""'"$USER</t>
+  </si>
+  <si>
+    <t>echo ''''hawayda</t>
+  </si>
+  <si>
+    <t>echo $USER"'"</t>
+  </si>
+  <si>
+    <t>echo hawayda'</t>
+  </si>
+  <si>
+    <t>echo $USER"'""'""'""'"</t>
+  </si>
+  <si>
+    <t>echo hawayda''''</t>
+  </si>
+  <si>
+    <t>echo $USER"a"</t>
+  </si>
+  <si>
+    <t>echo hawaydaa</t>
+  </si>
+  <si>
+    <t>echo $USER'a'</t>
+  </si>
+  <si>
+    <t>echo $USER"$USER"</t>
+  </si>
+  <si>
+    <t>echo hawaydahawayda</t>
+  </si>
+  <si>
+    <t>echo $</t>
+  </si>
+  <si>
+    <t>echo $""</t>
+  </si>
+  <si>
+    <t>echo "$"""</t>
   </si>
   <si>
     <t xml:space="preserve">echo </t>
   </si>
   <si>
-    <t xml:space="preserve">echo $"HOME"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo a b c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo | cat -e</t>
+    <t>echo $"HOME"</t>
+  </si>
+  <si>
+    <t>echo HOME</t>
+  </si>
+  <si>
+    <t>echo a b c</t>
+  </si>
+  <si>
+    <t>echo | cat -e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -629,31 +631,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Ubuntu mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -672,14 +657,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFE8E8E8"/>
       </left>
@@ -695,65 +680,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -812,30 +760,358 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A167" activeCellId="0" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.45"/>
+    <col min="1" max="1" width="44.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -851,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -859,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -867,7 +1143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -875,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -883,7 +1159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -891,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -899,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -907,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -915,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -923,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -931,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -939,7 +1215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -947,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -955,7 +1231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -963,7 +1239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -971,7 +1247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -979,7 +1255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -987,7 +1263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -995,7 +1271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1003,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1011,7 +1287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1019,7 +1295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1027,7 +1303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1035,527 +1311,527 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>150</v>
       </c>
@@ -1563,7 +1839,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>151</v>
       </c>
@@ -1571,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>152</v>
       </c>
@@ -1579,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>153</v>
       </c>
@@ -1587,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
@@ -1595,7 +1871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>155</v>
       </c>
@@ -1603,7 +1879,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>156</v>
       </c>
@@ -1611,7 +1887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>158</v>
       </c>
@@ -1619,7 +1895,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>159</v>
       </c>
@@ -1627,7 +1903,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>160</v>
       </c>
@@ -1635,7 +1911,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>162</v>
       </c>
@@ -1643,7 +1919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>163</v>
       </c>
@@ -1651,7 +1927,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>165</v>
       </c>
@@ -1659,7 +1935,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>166</v>
       </c>
@@ -1667,7 +1943,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>167</v>
       </c>
@@ -1675,7 +1951,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>169</v>
       </c>
@@ -1683,7 +1959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
@@ -1691,7 +1967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>171</v>
       </c>
@@ -1699,7 +1975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>172</v>
       </c>
@@ -1707,7 +1983,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>174</v>
       </c>
@@ -1715,7 +1991,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>175</v>
       </c>
@@ -1723,7 +1999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>176</v>
       </c>
@@ -1731,7 +2007,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>178</v>
       </c>
@@ -1739,7 +2015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>180</v>
       </c>
@@ -1747,7 +2023,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>182</v>
       </c>
@@ -1755,7 +2031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>184</v>
       </c>
@@ -1763,7 +2039,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>186</v>
       </c>
@@ -1771,7 +2047,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>187</v>
       </c>
@@ -1779,7 +2055,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>189</v>
       </c>
@@ -1787,7 +2063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>190</v>
       </c>
@@ -1795,7 +2071,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>191</v>
       </c>
@@ -1803,7 +2079,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>193</v>
       </c>
@@ -1811,7 +2087,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>195</v>
       </c>
@@ -1819,7 +2095,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>193</v>
       </c>
@@ -1827,7 +2103,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>193</v>
       </c>
@@ -1835,21 +2111,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
